--- a/recording/imagenet.xlsx
+++ b/recording/imagenet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wsl_in_win\Tensor_Layer_Neural_Networks\release\recording\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC7F6EA-1D8B-4079-8CD7-3CFBB5970718}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C454904-2F82-4955-8B28-47BE8487FDEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,15 +73,15 @@
     <t>subnet15</t>
   </si>
   <si>
-    <t>Train Acc1</t>
+    <t>subnet0</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Test Acc1:</t>
+    <t>Test Acc:</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>subnet0</t>
+    <t>Train Acc</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q2408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F303" sqref="F303"/>
+    <sheetView tabSelected="1" topLeftCell="A583" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C606" sqref="C606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1050,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -17003,7 +17003,7 @@
         <v>4</v>
       </c>
       <c r="B302" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C302" t="s">
         <v>0</v>
@@ -32953,10 +32953,10 @@
     </row>
     <row r="603" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
+        <v>19</v>
+      </c>
+      <c r="B603" t="s">
         <v>17</v>
-      </c>
-      <c r="B603" t="s">
-        <v>19</v>
       </c>
       <c r="C603" t="s">
         <v>0</v>
@@ -48909,7 +48909,7 @@
         <v>5</v>
       </c>
       <c r="B904" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C904" t="s">
         <v>0</v>
